--- a/Datos/Database by set/Set with text box/Xlsx sets/2016 Heroes of the Realm (HTR).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/2016 Heroes of the Realm (HTR).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,140 +444,21 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chandra, Gremlin Wrangler</t>
+          <t>('Chandra, Gremlin Wrangler', ['{2}{R}{R}', 'Legendary Planeswalker — Chandra', '+1: Create a 2/2 red Gremlin creature token.', '−2: Chandra, Gremlin Wrangler deals X damage to target creature or player, where X is the number of Gremlins you control.', 'Loyalty: 3'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{R}{R}</t>
+          <t>('Dungeon Master', ['{2}{W}{U}', 'Legendary Planeswalker — Dungeon Master', '+1: Target opponent creates a 1/1 black Skeleton creature token with “When this creature dies, each opponent gains 2 life.”', '+1: Roll a d20. If you roll a 1, skip your next turn. If you roll a 12 or higher, draw a card.', '−6: You get an adventuring party. (Your party is a 3/3 red Fighter with first strike, a 1/1 white Cleric with lifelink, a 2/2 black Rogue with hexproof, and a 1/1 blue Wizard with flying.)', 'Loyalty: 1d4+1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Legendary Planeswalker — Chandra</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+1: Create a 2/2 red Gremlin creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>−2: Chandra, Gremlin Wrangler deals X damage to target creature or player, where X is the number of Gremlins you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Loyalty: 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Dungeon Master</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{2}{W}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Dungeon Master</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>+1: Target opponent creates a 1/1 black Skeleton creature token with “When this creature dies, each opponent gains 2 life.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>+1: Roll a d20. If you roll a 1, skip your next turn. If you roll a 12 or higher, draw a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>−6: You get an adventuring party. (Your party is a 3/3 red Fighter with first strike, a 1/1 white Cleric with lifelink, a 2/2 black Rogue with hexproof, and a 1/1 blue Wizard with flying.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Loyalty: 1d4+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Nira, Hellkite Duelist</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{W}{U}{B}{R}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Flash</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Flying, trample, haste</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>When Nira, Hellkite Duelist enters the battlefield, the next time you would lose the game this turn, instead draw three cards and your life total becomes 5.</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6/6</t>
+          <t>('Nira, Hellkite Duelist', ['{W}{U}{B}{R}{G}', 'Legendary Creature — Dragon', 'Flash', 'Flying, trample, haste', 'When Nira, Hellkite Duelist enters the battlefield, the next time you would lose the game this turn, instead draw three cards and your life total becomes 5.', '6/6'])</t>
         </is>
       </c>
     </row>
